--- a/data/trans_dic/P70A03_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A03_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,65%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>38,72; 55,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>25,48; 43,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>35,3; 48,14</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,54%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>71,77; 82,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>50,3; 67,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>67,18; 76,38</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,7%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>46,52; 63,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>27,97; 49,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>42,26; 56,39</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,52%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>43,99; 59,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>26,67; 44,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>40,19; 51,31</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,56%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>72,89; 87,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>48,15; 77,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>67,4; 81,96</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,6%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>47,63; 64,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>37,74; 60,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>45,97; 60,53</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,35%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,4%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>53,35; 65,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>47,35; 64,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>53,35; 63,37</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,56%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>68,32; 76,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>48,01; 61,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>63,02; 70,61</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,29%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>62,19; 66,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>46,32; 52,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>57,42; 61,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A03_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A03_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,72; 55,06</t>
+          <t>38,53; 54,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,48; 43,58</t>
+          <t>25,07; 43,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,3; 48,14</t>
+          <t>35,87; 48,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,77; 82,6</t>
+          <t>71,68; 82,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,3; 67,38</t>
+          <t>50,95; 67,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,18; 76,38</t>
+          <t>67,24; 76,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,52; 63,28</t>
+          <t>47,67; 63,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,97; 49,98</t>
+          <t>29,51; 52,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,26; 56,39</t>
+          <t>42,62; 57,09</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,99; 59,15</t>
+          <t>44,68; 59,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,67; 44,86</t>
+          <t>27,21; 44,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,19; 51,31</t>
+          <t>40,13; 51,39</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,89; 87,69</t>
+          <t>72,42; 88,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,15; 77,26</t>
+          <t>47,24; 75,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67,4; 81,96</t>
+          <t>68,07; 82,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>47,63; 64,93</t>
+          <t>46,84; 64,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,74; 60,61</t>
+          <t>37,96; 60,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,97; 60,53</t>
+          <t>46,02; 60,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>53,35; 65,36</t>
+          <t>53,61; 65,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,35; 64,38</t>
+          <t>47,64; 64,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53,35; 63,37</t>
+          <t>53,83; 63,53</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>68,32; 76,96</t>
+          <t>67,92; 76,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,01; 61,17</t>
+          <t>47,51; 61,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>63,02; 70,61</t>
+          <t>62,54; 70,37</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>62,19; 66,83</t>
+          <t>62,3; 66,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>46,32; 52,96</t>
+          <t>45,76; 53,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>57,42; 61,29</t>
+          <t>57,36; 61,33</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado algún reconocimiento médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>71311</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35899</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>107210</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>58850; 83545</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26243; 45637</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>92321; 123904</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>208631</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>77854</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>286485</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>193117; 221335</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>66759; 88997</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>269232; 305140</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79613</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28752</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>108366</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>68856; 91909</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21714; 38800</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92922; 124477</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>101066</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40335</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>141400</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>87652; 116624</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>31149; 50733</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>124652; 159637</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>90252</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30132</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>120383</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>80310; 98027</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22882; 36452</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>108460; 131226</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>73160</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>36186</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>109346</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>61231; 84403</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>27822; 44672</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>93897; 122739</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>170620</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>86932</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>257553</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>153716; 188150</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>73495; 99226</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>237400; 280170</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>330995</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>122582</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>453577</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>310226; 348336</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>106766; 138683</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>426156; 479536</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1125648</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>458672</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1584320</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1088826; 1165205</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>423044; 491797</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1532942; 1638806</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>